--- a/UIG_v1.xlsx
+++ b/UIG_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00074290\Desktop\DaYou\CMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DDCB05-C1C9-4CFD-9271-C8419A78C501}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C770071A-E856-42D0-8379-96D0ED91B03D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24165" windowHeight="11145" xr2:uid="{4414DCD3-57A6-468B-961E-E194393D3A28}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="120">
   <si>
     <t>廠區</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -380,15 +380,9 @@
     <t>255.255.248.1</t>
   </si>
   <si>
-    <t>10.10.103.129</t>
-  </si>
-  <si>
     <t>P3/SF/GW002</t>
   </si>
   <si>
-    <t>LAN2</t>
-  </si>
-  <si>
     <t>192.168.1.2</t>
   </si>
   <si>
@@ -410,15 +404,9 @@
     <t>255.255.248.2</t>
   </si>
   <si>
-    <t>10.10.103.130</t>
-  </si>
-  <si>
     <t>P3/SF/GW003</t>
   </si>
   <si>
-    <t>LAN3</t>
-  </si>
-  <si>
     <t>192.168.1.3</t>
   </si>
   <si>
@@ -440,15 +428,9 @@
     <t>255.255.248.3</t>
   </si>
   <si>
-    <t>10.10.103.131</t>
-  </si>
-  <si>
     <t>P3/SF/GW004</t>
   </si>
   <si>
-    <t>LAN4</t>
-  </si>
-  <si>
     <t>192.168.1.4</t>
   </si>
   <si>
@@ -470,15 +452,9 @@
     <t>255.255.248.4</t>
   </si>
   <si>
-    <t>10.10.103.132</t>
-  </si>
-  <si>
     <t>P3/SF/GW005</t>
   </si>
   <si>
-    <t>LAN5</t>
-  </si>
-  <si>
     <t>192.168.1.5</t>
   </si>
   <si>
@@ -500,15 +476,9 @@
     <t>255.255.248.5</t>
   </si>
   <si>
-    <t>10.10.103.133</t>
-  </si>
-  <si>
     <t>P3/SF/GW006</t>
   </si>
   <si>
-    <t>LAN6</t>
-  </si>
-  <si>
     <t>192.168.1.6</t>
   </si>
   <si>
@@ -516,8 +486,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>LAN2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>10.21.90.153</t>
+  </si>
+  <si>
+    <t>10.21.90.154</t>
+  </si>
+  <si>
+    <t>10.21.90.155</t>
+  </si>
+  <si>
+    <t>10.21.90.156</t>
   </si>
 </sst>
 </file>
@@ -1025,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4D0B5F-8099-4804-8E6E-36FB9AAFFBD4}">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1281,7 @@
         <v>25</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>33</v>
@@ -1374,14 +1352,18 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
+      <c r="R6" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -1405,14 +1387,18 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="R7" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -1454,7 +1440,7 @@
         <v>25</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>33</v>
@@ -1543,7 +1529,7 @@
         <v>25</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>33</v>
@@ -1614,14 +1600,18 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="K10" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="R10" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -1663,7 +1653,7 @@
         <v>25</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>33</v>
@@ -1752,7 +1742,7 @@
         <v>25</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>33</v>
@@ -1823,14 +1813,18 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="R13" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -1872,7 +1866,7 @@
         <v>25</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>33</v>
@@ -1961,7 +1955,7 @@
         <v>25</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>33</v>
@@ -2050,7 +2044,7 @@
         <v>25</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>33</v>
@@ -2121,14 +2115,18 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="K17" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
+      <c r="R17" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -2170,7 +2168,7 @@
         <v>25</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>33</v>
@@ -2259,10 +2257,10 @@
         <v>80</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="L19" s="6">
         <v>1884</v>
@@ -2274,7 +2272,7 @@
         <v>36</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P19" s="12" t="s">
         <v>71</v>
@@ -2283,7 +2281,7 @@
         <v>14</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="S19" s="5" t="s">
         <v>43</v>
@@ -2292,7 +2290,7 @@
         <v>9</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V19" s="5">
         <v>503</v>
@@ -2321,19 +2319,19 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>22</v>
@@ -2342,16 +2340,16 @@
         <v>23</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="L20" s="6">
         <v>1885</v>
@@ -2363,7 +2361,7 @@
         <v>36</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P20" s="12" t="s">
         <v>71</v>
@@ -2372,7 +2370,7 @@
         <v>15</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="S20" s="5" t="s">
         <v>43</v>
@@ -2381,7 +2379,7 @@
         <v>10</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="V20" s="5">
         <v>504</v>
@@ -2410,19 +2408,19 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>22</v>
@@ -2431,16 +2429,16 @@
         <v>23</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="L21" s="6">
         <v>1886</v>
@@ -2452,7 +2450,7 @@
         <v>36</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="P21" s="12" t="s">
         <v>71</v>
@@ -2461,7 +2459,7 @@
         <v>16</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="S21" s="5" t="s">
         <v>43</v>
@@ -2470,7 +2468,7 @@
         <v>11</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="V21" s="5">
         <v>505</v>
@@ -2499,19 +2497,19 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>22</v>
@@ -2520,16 +2518,16 @@
         <v>23</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="L22" s="6">
         <v>1887</v>
@@ -2541,7 +2539,7 @@
         <v>36</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="P22" s="12" t="s">
         <v>71</v>
@@ -2550,7 +2548,7 @@
         <v>17</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="S22" s="5" t="s">
         <v>43</v>
@@ -2559,7 +2557,7 @@
         <v>12</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="V22" s="5">
         <v>506</v>
@@ -2588,19 +2586,19 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>22</v>
@@ -2609,16 +2607,16 @@
         <v>23</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="L23" s="6">
         <v>1888</v>
@@ -2630,7 +2628,7 @@
         <v>36</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="P23" s="12" t="s">
         <v>71</v>
@@ -2639,7 +2637,7 @@
         <v>18</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="S23" s="5" t="s">
         <v>43</v>
@@ -2648,7 +2646,7 @@
         <v>13</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="V23" s="5">
         <v>507</v>
@@ -2673,6 +2671,14 @@
       </c>
       <c r="AC23" s="5" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -2704,7 +2710,7 @@
         <v>25</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>33</v>
@@ -2728,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>43</v>
@@ -2761,6 +2767,556 @@
         <v>27</v>
       </c>
       <c r="AC25" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="6">
+        <v>1883</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>13</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T27" s="5">
+        <v>6</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V27" s="5">
+        <v>502</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>777</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC27" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="6">
+        <v>1884</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>14</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" s="5">
+        <v>9</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="V29" s="5">
+        <v>503</v>
+      </c>
+      <c r="W29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="X29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>11</v>
+      </c>
+      <c r="Z29" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC29" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="6">
+        <v>1885</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>15</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T30" s="5">
+        <v>10</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="V30" s="5">
+        <v>504</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>12</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC30" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="6">
+        <v>1886</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>16</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T31" s="5">
+        <v>11</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="V31" s="5">
+        <v>505</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>13</v>
+      </c>
+      <c r="Z31" s="5">
+        <v>4</v>
+      </c>
+      <c r="AA31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC31" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="6">
+        <v>1887</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>17</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T32" s="5">
+        <v>12</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V32" s="5">
+        <v>506</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>14</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>5</v>
+      </c>
+      <c r="AA32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC32" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="6">
+        <v>1888</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>18</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T33" s="5">
+        <v>13</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="V33" s="5">
+        <v>507</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="X33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>15</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>6</v>
+      </c>
+      <c r="AA33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC33" s="5" t="s">
         <v>26</v>
       </c>
     </row>
